--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_33.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_33.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[('0:00:51.280000', '0:01:02.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(34.86, 42.08)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.66, 97.0)]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[('0:00:06.880000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.24, 16.18)]</t>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(4.511043, 10.664331)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(65.02, 68.08)]</t>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:00:39.800000', '0:00:48.280000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.32, 8.68)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74), (30.02, 32.12)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.75</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.68, 45.8)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:00:04.840000', '0:01:33.920000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.32, 33.88)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(11.62, 15.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
